--- a/data/trans_orig/P1423-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BA653A3-AA92-4D26-B12A-326B967ED267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E84BB287-2371-4835-AE70-4F321925F9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{975364F1-A8AC-462A-B08E-3EEFC3698B79}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D91F9EE9-859E-4954-8B03-00403D91881D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="439">
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -92,804 +92,840 @@
     <t>Si</t>
   </si>
   <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>89,56%</t>
   </si>
   <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
     <t>92,15%</t>
   </si>
   <si>
@@ -905,46 +941,55 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>2,61%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>3,24%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>96,76%</t>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -953,145 +998,148 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
     <t>88,29%</t>
   </si>
   <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
   <si>
     <t>92,12%</t>
   </si>
   <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -1100,147 +1148,141 @@
     <t>6,63%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>82,17%</t>
   </si>
   <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>87,66%</t>
   </si>
   <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>2,92%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
   </si>
   <si>
     <t>93,82%</t>
   </si>
   <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
@@ -1265,13 +1307,7 @@
     <t>99,58%</t>
   </si>
   <si>
-    <t>99,75%</t>
-  </si>
-  <si>
     <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -1731,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C406E8-C8AE-455B-BAD2-E42D8F99419A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E0831-3C0C-4526-BFF6-3E5BCB13FC01}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2939,10 +2975,10 @@
         <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>71</v>
@@ -2951,13 +2987,13 @@
         <v>73143</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>103</v>
@@ -2966,13 +3002,13 @@
         <v>103145</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +3023,13 @@
         <v>472464</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>590</v>
@@ -3002,13 +3038,13 @@
         <v>603699</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>1081</v>
@@ -3017,13 +3053,13 @@
         <v>1076163</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3133,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3112,7 +3148,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3127,7 +3163,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3178,13 @@
         <v>101374</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>248</v>
@@ -3157,13 +3193,13 @@
         <v>257122</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>352</v>
@@ -3172,13 +3208,13 @@
         <v>358496</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3229,13 @@
         <v>3175170</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H30" s="7">
         <v>3049</v>
@@ -3208,28 +3244,28 @@
         <v>3122076</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M30" s="7">
         <v>6159</v>
       </c>
       <c r="N30" s="7">
-        <v>6297244</v>
+        <v>6297245</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,7 +3307,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>34</v>
@@ -3285,7 +3321,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3307,7 +3343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE9CF04-F4C5-4444-BCEB-6A42D18E94DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB43ECB2-9B22-4526-B1A1-A06A888405B3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3324,7 +3360,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3437,7 +3473,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3452,7 +3488,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3467,7 +3503,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3518,13 @@
         <v>3699</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3497,13 +3533,13 @@
         <v>6633</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -3512,13 +3548,13 @@
         <v>10333</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3569,13 @@
         <v>450447</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H6" s="7">
         <v>415</v>
@@ -3548,13 +3584,13 @@
         <v>423597</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>857</v>
@@ -3563,13 +3599,13 @@
         <v>874043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,7 +3694,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3688,13 +3724,13 @@
         <v>20902</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -3703,13 +3739,13 @@
         <v>26779</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -3718,13 +3754,13 @@
         <v>47681</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3775,13 @@
         <v>666185</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>546</v>
@@ -3754,13 +3790,13 @@
         <v>583476</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>1194</v>
@@ -3769,13 +3805,13 @@
         <v>1249661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3930,13 @@
         <v>26222</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -3909,13 +3945,13 @@
         <v>69373</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>89</v>
@@ -3924,13 +3960,13 @@
         <v>95595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3981,13 @@
         <v>655641</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>600</v>
@@ -3960,13 +3996,13 @@
         <v>640201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>1228</v>
@@ -3975,13 +4011,13 @@
         <v>1295842</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,7 +4091,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4070,7 +4106,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4085,7 +4121,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4136,13 @@
         <v>27355</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -4115,13 +4151,13 @@
         <v>76887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -4130,13 +4166,13 @@
         <v>104242</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4187,13 @@
         <v>587262</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H18" s="7">
         <v>467</v>
@@ -4166,13 +4202,13 @@
         <v>537377</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="M18" s="7">
         <v>990</v>
@@ -4181,13 +4217,13 @@
         <v>1124638</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4312,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4306,13 +4342,13 @@
         <v>30885</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="H21" s="7">
         <v>79</v>
@@ -4321,13 +4357,13 @@
         <v>82609</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M21" s="7">
         <v>108</v>
@@ -4336,13 +4372,13 @@
         <v>113493</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4393,13 @@
         <v>398544</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>327</v>
@@ -4372,13 +4408,13 @@
         <v>365191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>691</v>
@@ -4387,13 +4423,13 @@
         <v>763736</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,7 +4518,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4512,13 +4548,13 @@
         <v>33617</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="H25" s="7">
         <v>135</v>
@@ -4527,13 +4563,13 @@
         <v>143323</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M25" s="7">
         <v>163</v>
@@ -4542,13 +4578,13 @@
         <v>176940</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4599,13 @@
         <v>526020</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H26" s="7">
         <v>559</v>
@@ -4578,13 +4614,13 @@
         <v>599652</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="M26" s="7">
         <v>1035</v>
@@ -4593,13 +4629,13 @@
         <v>1125672</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,7 +4709,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4688,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4703,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4754,13 @@
         <v>142680</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="H29" s="7">
         <v>382</v>
@@ -4733,13 +4769,13 @@
         <v>405603</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>129</v>
+        <v>284</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="M29" s="7">
         <v>510</v>
@@ -4748,13 +4784,13 @@
         <v>548283</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4805,13 @@
         <v>3284099</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="H30" s="7">
         <v>2914</v>
@@ -4784,13 +4820,13 @@
         <v>3149495</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="M30" s="7">
         <v>5995</v>
@@ -4799,13 +4835,13 @@
         <v>6433594</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,7 +4897,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4883,7 +4919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676207BD-2BC9-4A8D-AA35-0E08F5641CAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633D8686-45F7-4264-9427-417547AEF69B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4900,7 +4936,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5028,7 +5064,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5058,13 +5094,13 @@
         <v>4392</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -5073,13 +5109,13 @@
         <v>12125</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -5088,13 +5124,13 @@
         <v>16517</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5145,13 @@
         <v>415071</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="H6" s="7">
         <v>393</v>
@@ -5124,13 +5160,13 @@
         <v>383630</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="M6" s="7">
         <v>782</v>
@@ -5139,13 +5175,13 @@
         <v>798701</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,7 +5255,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5234,7 +5270,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5249,7 +5285,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5300,13 @@
         <v>6902</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>304</v>
+        <v>99</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -5279,13 +5315,13 @@
         <v>13644</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -5294,13 +5330,13 @@
         <v>20546</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>323</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5351,13 @@
         <v>583594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>565</v>
@@ -5330,13 +5366,13 @@
         <v>549900</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>1125</v>
@@ -5345,13 +5381,13 @@
         <v>1133494</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>26</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,7 +5461,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5470,13 +5506,13 @@
         <v>16452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5485,13 +5521,13 @@
         <v>44951</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -5500,13 +5536,13 @@
         <v>61404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5557,13 @@
         <v>652645</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
         <v>618</v>
@@ -5536,13 +5572,13 @@
         <v>616435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>1240</v>
@@ -5551,13 +5587,13 @@
         <v>1269079</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,7 +5667,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5676,13 +5712,13 @@
         <v>26074</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -5691,13 +5727,13 @@
         <v>75994</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -5706,13 +5742,13 @@
         <v>102068</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5763,13 @@
         <v>619974</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>54</v>
+        <v>360</v>
       </c>
       <c r="H18" s="7">
         <v>532</v>
@@ -5742,28 +5778,28 @@
         <v>573083</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="M18" s="7">
         <v>1089</v>
       </c>
       <c r="N18" s="7">
-        <v>1193057</v>
+        <v>1193058</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,7 +5841,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
@@ -5837,7 +5873,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5852,7 +5888,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5867,7 +5903,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5918,13 @@
         <v>31679</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="H21" s="7">
         <v>79</v>
@@ -5897,13 +5933,13 @@
         <v>88606</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="M21" s="7">
         <v>106</v>
@@ -5912,13 +5948,13 @@
         <v>120285</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5969,13 @@
         <v>446239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
         <v>354</v>
@@ -5948,13 +5984,13 @@
         <v>408243</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
         <v>751</v>
@@ -5963,13 +5999,13 @@
         <v>854482</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,13 +6124,13 @@
         <v>25071</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>371</v>
+        <v>189</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="H25" s="7">
         <v>107</v>
@@ -6103,13 +6139,13 @@
         <v>125874</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="M25" s="7">
         <v>135</v>
@@ -6118,13 +6154,13 @@
         <v>150945</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6175,13 @@
         <v>566257</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>381</v>
+        <v>199</v>
       </c>
       <c r="H26" s="7">
         <v>548</v>
@@ -6154,13 +6190,13 @@
         <v>652057</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="M26" s="7">
         <v>1147</v>
@@ -6169,13 +6205,13 @@
         <v>1218314</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>386</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,7 +6285,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6264,7 +6300,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6279,7 +6315,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6330,13 @@
         <v>110570</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="H29" s="7">
         <v>328</v>
@@ -6309,13 +6345,13 @@
         <v>361195</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="M29" s="7">
         <v>435</v>
@@ -6324,13 +6360,13 @@
         <v>471765</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>405</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6381,13 @@
         <v>3283780</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="H30" s="7">
         <v>3010</v>
@@ -6360,13 +6396,13 @@
         <v>3183347</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="M30" s="7">
         <v>6134</v>
@@ -6375,13 +6411,13 @@
         <v>6467127</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>188</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,7 +6473,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6459,7 +6495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCFD859-9D3A-40EB-9514-95197A28F589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6C9D0E-2D5F-4F25-B509-1AD71DA49B28}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6476,7 +6512,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6586,7 +6622,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>34</v>
@@ -6601,7 +6637,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>34</v>
@@ -6616,7 +6652,7 @@
         <v>27</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>34</v>
@@ -6640,7 +6676,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6655,7 +6691,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6670,7 +6706,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,7 +6727,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6706,7 +6742,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6721,7 +6757,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,7 +6828,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>34</v>
@@ -6807,7 +6843,7 @@
         <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>34</v>
@@ -6822,7 +6858,7 @@
         <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>408</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>34</v>
@@ -6846,7 +6882,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6861,7 +6897,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6876,7 +6912,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>410</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,7 +6933,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6912,7 +6948,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6927,7 +6963,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>410</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,7 +7034,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>34</v>
@@ -7013,7 +7049,7 @@
         <v>27</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>34</v>
@@ -7028,7 +7064,7 @@
         <v>27</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>34</v>
@@ -7052,7 +7088,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7067,7 +7103,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7082,7 +7118,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,7 +7139,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7118,7 +7154,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7133,7 +7169,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,7 +7240,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>34</v>
@@ -7219,7 +7255,7 @@
         <v>27</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>34</v>
@@ -7234,7 +7270,7 @@
         <v>27</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>34</v>
@@ -7273,7 +7309,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7288,7 +7324,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,7 +7360,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -7339,7 +7375,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7410,7 +7446,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>34</v>
@@ -7440,7 +7476,7 @@
         <v>27</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>34</v>
@@ -7494,7 +7530,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,7 +7581,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7631,7 +7667,7 @@
         <v>27</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>34</v>
@@ -7646,7 +7682,7 @@
         <v>27</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>34</v>
@@ -7685,7 +7721,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7700,7 +7736,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,7 +7772,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7751,7 +7787,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7822,7 +7858,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>34</v>
@@ -7837,7 +7873,7 @@
         <v>27</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>34</v>
@@ -7852,7 +7888,7 @@
         <v>27</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>34</v>
@@ -7876,7 +7912,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7891,7 +7927,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7906,7 +7942,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,7 +7963,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -7942,7 +7978,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -7957,7 +7993,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,7 +8049,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1423-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E84BB287-2371-4835-AE70-4F321925F9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB5D727-4745-40F5-A2FF-71B187257E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D91F9EE9-859E-4954-8B03-00403D91881D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB5F6113-4876-4CDD-B3DA-0EE9A29ACD1A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="428">
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -98,19 +98,19 @@
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -128,19 +128,19 @@
     <t>97,47%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>98,67%</t>
   </si>
   <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,1159 +161,1126 @@
     <t>1,92%</t>
   </si>
   <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
   </si>
   <si>
     <t>95,38%</t>
   </si>
   <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
   </si>
   <si>
     <t>0,14%</t>
@@ -1767,7 +1734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E0831-3C0C-4526-BFF6-3E5BCB13FC01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CA407A-3557-41C0-84C7-22775BDA2DC6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3181,10 +3148,10 @@
         <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>248</v>
@@ -3193,13 +3160,13 @@
         <v>257122</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>352</v>
@@ -3208,13 +3175,13 @@
         <v>358496</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,16 +3193,16 @@
         <v>3110</v>
       </c>
       <c r="D30" s="7">
-        <v>3175170</v>
+        <v>3175169</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3049</v>
@@ -3244,13 +3211,13 @@
         <v>3122076</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M30" s="7">
         <v>6159</v>
@@ -3259,13 +3226,13 @@
         <v>6297245</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,7 +3244,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>34</v>
@@ -3321,7 +3288,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3343,7 +3310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB43ECB2-9B22-4526-B1A1-A06A888405B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AD0427-0626-4DE4-9326-B82B830E0C90}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3360,7 +3327,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3473,37 +3440,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3485,13 @@
         <v>3699</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3533,13 +3500,13 @@
         <v>6633</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -3548,13 +3515,13 @@
         <v>10333</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3536,13 @@
         <v>450447</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H6" s="7">
         <v>415</v>
@@ -3584,13 +3551,13 @@
         <v>423597</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>857</v>
@@ -3599,13 +3566,13 @@
         <v>874043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,7 +3661,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3724,13 +3691,13 @@
         <v>20902</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -3739,13 +3706,13 @@
         <v>26779</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -3754,13 +3721,13 @@
         <v>47681</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3742,13 @@
         <v>666185</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>546</v>
@@ -3790,13 +3757,13 @@
         <v>583476</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>1194</v>
@@ -3805,13 +3772,13 @@
         <v>1249661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3897,13 @@
         <v>26222</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -3945,13 +3912,13 @@
         <v>69373</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>89</v>
@@ -3960,13 +3927,13 @@
         <v>95595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3948,13 @@
         <v>655641</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>600</v>
@@ -3996,13 +3963,13 @@
         <v>640201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>1228</v>
@@ -4011,13 +3978,13 @@
         <v>1295842</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,7 +4058,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4106,7 +4073,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4121,7 +4088,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4103,13 @@
         <v>27355</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -4151,13 +4118,13 @@
         <v>76887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -4166,13 +4133,13 @@
         <v>104242</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4154,13 @@
         <v>587262</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H18" s="7">
         <v>467</v>
@@ -4202,13 +4169,13 @@
         <v>537377</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="M18" s="7">
         <v>990</v>
@@ -4217,13 +4184,13 @@
         <v>1124638</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,7 +4279,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4342,13 +4309,13 @@
         <v>30885</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H21" s="7">
         <v>79</v>
@@ -4357,13 +4324,13 @@
         <v>82609</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M21" s="7">
         <v>108</v>
@@ -4372,13 +4339,13 @@
         <v>113493</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4360,13 @@
         <v>398544</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H22" s="7">
         <v>327</v>
@@ -4408,13 +4375,13 @@
         <v>365191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M22" s="7">
         <v>691</v>
@@ -4423,13 +4390,13 @@
         <v>763736</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,7 +4485,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4548,13 +4515,13 @@
         <v>33617</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H25" s="7">
         <v>135</v>
@@ -4563,13 +4530,13 @@
         <v>143323</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M25" s="7">
         <v>163</v>
@@ -4578,13 +4545,13 @@
         <v>176940</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4566,13 @@
         <v>526020</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H26" s="7">
         <v>559</v>
@@ -4614,13 +4581,13 @@
         <v>599652</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M26" s="7">
         <v>1035</v>
@@ -4629,13 +4596,13 @@
         <v>1125672</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4721,13 @@
         <v>142680</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H29" s="7">
         <v>382</v>
@@ -4769,13 +4736,13 @@
         <v>405603</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M29" s="7">
         <v>510</v>
@@ -4784,13 +4751,13 @@
         <v>548283</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>288</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4772,13 @@
         <v>3284099</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H30" s="7">
         <v>2914</v>
@@ -4820,13 +4787,13 @@
         <v>3149495</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="M30" s="7">
         <v>5995</v>
@@ -4835,13 +4802,13 @@
         <v>6433594</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,7 +4864,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4919,7 +4886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633D8686-45F7-4264-9427-417547AEF69B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF27588-6D9C-4F4A-8CF6-7DCB81F59242}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4936,7 +4903,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5064,7 +5031,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5094,13 +5061,13 @@
         <v>4392</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -5109,13 +5076,13 @@
         <v>12125</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -5124,13 +5091,13 @@
         <v>16517</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5112,13 @@
         <v>415071</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="H6" s="7">
         <v>393</v>
@@ -5160,13 +5127,13 @@
         <v>383630</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>311</v>
+        <v>49</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="M6" s="7">
         <v>782</v>
@@ -5175,13 +5142,13 @@
         <v>798701</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,7 +5222,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5270,7 +5237,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5285,7 +5252,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,13 +5267,13 @@
         <v>6902</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -5315,13 +5282,13 @@
         <v>13644</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -5330,13 +5297,13 @@
         <v>20546</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5318,13 @@
         <v>583594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
         <v>565</v>
@@ -5366,13 +5333,13 @@
         <v>549900</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
         <v>1125</v>
@@ -5381,13 +5348,13 @@
         <v>1133494</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,7 +5428,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5506,13 +5473,13 @@
         <v>16452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>333</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5521,13 +5488,13 @@
         <v>44951</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -5536,13 +5503,13 @@
         <v>61404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5524,13 @@
         <v>652645</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>341</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>618</v>
@@ -5572,13 +5539,13 @@
         <v>616435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
         <v>1240</v>
@@ -5587,13 +5554,13 @@
         <v>1269079</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,7 +5634,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5712,13 +5679,13 @@
         <v>26074</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -5727,13 +5694,13 @@
         <v>75994</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -5742,13 +5709,13 @@
         <v>102068</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5730,13 @@
         <v>619974</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>360</v>
+        <v>54</v>
       </c>
       <c r="H18" s="7">
         <v>532</v>
@@ -5778,28 +5745,28 @@
         <v>573083</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="M18" s="7">
         <v>1089</v>
       </c>
       <c r="N18" s="7">
-        <v>1193058</v>
+        <v>1193057</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,7 +5808,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
@@ -5873,7 +5840,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5888,7 +5855,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5903,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5885,13 @@
         <v>31679</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="H21" s="7">
         <v>79</v>
@@ -5933,13 +5900,13 @@
         <v>88606</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="M21" s="7">
         <v>106</v>
@@ -5948,13 +5915,13 @@
         <v>120285</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5936,13 @@
         <v>446239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="H22" s="7">
         <v>354</v>
@@ -5984,13 +5951,13 @@
         <v>408243</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="M22" s="7">
         <v>751</v>
@@ -5999,13 +5966,13 @@
         <v>854482</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6091,13 @@
         <v>25071</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>386</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>189</v>
+        <v>373</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="H25" s="7">
         <v>107</v>
@@ -6139,13 +6106,13 @@
         <v>125874</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="M25" s="7">
         <v>135</v>
@@ -6154,13 +6121,13 @@
         <v>150945</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>249</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6142,13 @@
         <v>566257</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>393</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>199</v>
+        <v>382</v>
       </c>
       <c r="H26" s="7">
         <v>548</v>
@@ -6190,13 +6157,13 @@
         <v>652057</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="M26" s="7">
         <v>1147</v>
@@ -6205,13 +6172,13 @@
         <v>1218314</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>258</v>
+        <v>387</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6297,13 @@
         <v>110570</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>401</v>
+        <v>45</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H29" s="7">
         <v>328</v>
@@ -6345,13 +6312,13 @@
         <v>361195</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>232</v>
+        <v>362</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>404</v>
+        <v>275</v>
       </c>
       <c r="M29" s="7">
         <v>435</v>
@@ -6360,13 +6327,13 @@
         <v>471765</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6348,13 @@
         <v>3283780</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>409</v>
+        <v>54</v>
       </c>
       <c r="H30" s="7">
         <v>3010</v>
@@ -6396,13 +6363,13 @@
         <v>3183347</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>240</v>
+        <v>372</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>410</v>
+        <v>282</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="M30" s="7">
         <v>6134</v>
@@ -6411,13 +6378,13 @@
         <v>6467127</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,7 +6440,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6495,7 +6462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6C9D0E-2D5F-4F25-B509-1AD71DA49B28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBD1C15-F439-4D9D-9200-25DE7C7B9E05}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6512,7 +6479,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6622,7 +6589,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>34</v>
@@ -6637,7 +6604,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>34</v>
@@ -6652,7 +6619,7 @@
         <v>27</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>34</v>
@@ -6676,7 +6643,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6691,7 +6658,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6706,7 +6673,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,7 +6694,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6742,7 +6709,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6757,7 +6724,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,7 +6795,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>34</v>
@@ -6843,7 +6810,7 @@
         <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>34</v>
@@ -6858,7 +6825,7 @@
         <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>310</v>
+        <v>407</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>34</v>
@@ -6882,7 +6849,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6897,7 +6864,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6912,7 +6879,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>300</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,7 +6900,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6948,7 +6915,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6963,7 +6930,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>300</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,7 +7001,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>34</v>
@@ -7049,7 +7016,7 @@
         <v>27</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>177</v>
+        <v>411</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>34</v>
@@ -7064,7 +7031,7 @@
         <v>27</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>34</v>
@@ -7088,7 +7055,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7103,7 +7070,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>413</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7118,7 +7085,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,7 +7106,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7154,7 +7121,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>413</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7169,7 +7136,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,7 +7207,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>34</v>
@@ -7255,7 +7222,7 @@
         <v>27</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>34</v>
@@ -7264,13 +7231,13 @@
         <v>1806</v>
       </c>
       <c r="N16" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>34</v>
@@ -7309,7 +7276,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7324,7 +7291,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7360,7 +7327,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -7375,7 +7342,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,7 +7384,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
@@ -7446,7 +7413,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>34</v>
@@ -7476,7 +7443,7 @@
         <v>27</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>34</v>
@@ -7530,7 +7497,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7581,7 +7548,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,7 +7613,7 @@
         <v>1028</v>
       </c>
       <c r="D24" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>27</v>
@@ -7667,7 +7634,7 @@
         <v>27</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>34</v>
@@ -7682,7 +7649,7 @@
         <v>27</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>34</v>
@@ -7721,7 +7688,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7736,7 +7703,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,7 +7739,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7787,7 +7754,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,7 +7766,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>34</v>
@@ -7858,7 +7825,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>34</v>
@@ -7873,7 +7840,7 @@
         <v>27</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>34</v>
@@ -7882,13 +7849,13 @@
         <v>8743</v>
       </c>
       <c r="N28" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>34</v>
@@ -7927,7 +7894,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7942,7 +7909,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,7 +7945,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -7993,7 +7960,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,7 +8002,7 @@
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>34</v>
@@ -8049,7 +8016,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1423-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Edad-trans_orig.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{708C272B-CDB1-4AF3-B0DB-6223E29387FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C5F9F48-2D33-4443-AEF3-8AC510980EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC6782F1-2643-4B49-B604-129D020C6FE7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6D578F09-0362-4D4B-BE75-CE2469E92631}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
     <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="541">
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -133,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -190,7 +191,7 @@
     <t>98,13%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,98%</t>
@@ -247,7 +248,7 @@
     <t>96,61%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>3,0%</t>
@@ -304,7 +305,7 @@
     <t>94,38%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>5,6%</t>
@@ -361,796 +362,1306 @@
     <t>92,56%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>89,56%</t>
   </si>
   <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>91,39%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
 </sst>
 </file>
@@ -1562,8 +2073,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37137C47-2463-4E4D-8E9D-46BEA66EFD26}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3C7F36-F534-4F00-8121-EB7C4DDDC998}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2455,49 +2966,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>30002</v>
+        <v>15257</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>73143</v>
+        <v>40645</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="N19" s="7">
-        <v>103145</v>
+        <v>55902</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,49 +3017,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>491</v>
+        <v>286</v>
       </c>
       <c r="D20" s="7">
-        <v>472464</v>
+        <v>277326</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>590</v>
+        <v>328</v>
       </c>
       <c r="I20" s="7">
-        <v>603699</v>
+        <v>302289</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1081</v>
+        <v>614</v>
       </c>
       <c r="N20" s="7">
-        <v>1076163</v>
+        <v>579615</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,10 +3068,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2572,10 +3083,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2587,10 +3098,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2604,55 +3115,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="D22" s="7">
-        <v>101374</v>
+        <v>14745</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="I22" s="7">
-        <v>257122</v>
+        <v>32498</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>352</v>
+        <v>43</v>
       </c>
       <c r="N22" s="7">
-        <v>358496</v>
+        <v>47243</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,49 +3172,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3110</v>
+        <v>205</v>
       </c>
       <c r="D23" s="7">
-        <v>3175170</v>
+        <v>195138</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>3049</v>
+        <v>262</v>
       </c>
       <c r="I23" s="7">
-        <v>3122076</v>
+        <v>301410</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>6159</v>
+        <v>467</v>
       </c>
       <c r="N23" s="7">
-        <v>6297244</v>
+        <v>496548</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,63 +3223,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>104</v>
+      </c>
+      <c r="D25" s="7">
+        <v>101374</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>248</v>
+      </c>
+      <c r="I25" s="7">
+        <v>257122</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>352</v>
+      </c>
+      <c r="N25" s="7">
+        <v>358496</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3110</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3175169</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3049</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3122075</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6159</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6297245</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2781,8 +3448,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAC5A58-237A-4431-B836-A771205B12BF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E84DE0A-1AEC-4735-BB39-726C45A437DA}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2798,7 +3465,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2905,13 +3572,13 @@
         <v>3699</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2920,13 +3587,13 @@
         <v>6633</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2938,10 +3605,10 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +3623,13 @@
         <v>450447</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
         <v>415</v>
@@ -2971,13 +3638,13 @@
         <v>423597</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>857</v>
@@ -2989,10 +3656,10 @@
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,10 +3730,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -3078,10 +3745,10 @@
         <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -3090,13 +3757,13 @@
         <v>47681</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,10 +3781,10 @@
         <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>546</v>
@@ -3129,10 +3796,10 @@
         <v>61</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>1194</v>
@@ -3141,13 +3808,13 @@
         <v>1249661</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3882,13 @@
         <v>26222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -3230,13 +3897,13 @@
         <v>69373</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
@@ -3245,13 +3912,13 @@
         <v>95595</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3933,13 @@
         <v>655641</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>600</v>
@@ -3281,13 +3948,13 @@
         <v>640201</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>1228</v>
@@ -3296,13 +3963,13 @@
         <v>1295842</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +4037,13 @@
         <v>27355</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -3385,13 +4052,13 @@
         <v>76887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -3400,13 +4067,13 @@
         <v>104242</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +4088,13 @@
         <v>587262</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
@@ -3436,13 +4103,13 @@
         <v>537377</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>990</v>
@@ -3451,13 +4118,13 @@
         <v>1124638</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +4192,13 @@
         <v>30885</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -3540,13 +4207,13 @@
         <v>82609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -3555,13 +4222,13 @@
         <v>113493</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +4243,13 @@
         <v>398544</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>327</v>
@@ -3591,13 +4258,13 @@
         <v>365191</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>691</v>
@@ -3606,13 +4273,13 @@
         <v>763736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,49 +4341,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>33617</v>
+        <v>16529</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="I19" s="7">
-        <v>143323</v>
+        <v>69374</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="N19" s="7">
-        <v>176940</v>
+        <v>85904</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,49 +4392,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>476</v>
+        <v>268</v>
       </c>
       <c r="D20" s="7">
-        <v>526020</v>
+        <v>293257</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
-        <v>559</v>
+        <v>275</v>
       </c>
       <c r="I20" s="7">
-        <v>599652</v>
+        <v>284622</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="M20" s="7">
-        <v>1035</v>
+        <v>543</v>
       </c>
       <c r="N20" s="7">
-        <v>1125672</v>
+        <v>577878</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,10 +4443,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3791,10 +4458,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3806,10 +4473,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3823,55 +4490,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>142680</v>
+        <v>17088</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
-        <v>382</v>
+        <v>66</v>
       </c>
       <c r="I22" s="7">
-        <v>405603</v>
+        <v>73948</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="N22" s="7">
-        <v>548283</v>
+        <v>91036</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,49 +4547,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3081</v>
+        <v>208</v>
       </c>
       <c r="D23" s="7">
-        <v>3284099</v>
+        <v>232763</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
-        <v>2914</v>
+        <v>284</v>
       </c>
       <c r="I23" s="7">
-        <v>3149495</v>
+        <v>315031</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
-        <v>5995</v>
+        <v>492</v>
       </c>
       <c r="N23" s="7">
-        <v>6433594</v>
+        <v>547794</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,63 +4598,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>128</v>
+      </c>
+      <c r="D25" s="7">
+        <v>142680</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H25" s="7">
+        <v>382</v>
+      </c>
+      <c r="I25" s="7">
+        <v>405603</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M25" s="7">
+        <v>510</v>
+      </c>
+      <c r="N25" s="7">
+        <v>548283</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3081</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3284099</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2914</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3149495</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5995</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6433594</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6505</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6981877</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4000,8 +4823,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6691D69-B61F-4294-9F44-16D775D3D2D8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50575D67-6407-4B27-82DB-5DAF5CB38428}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4017,7 +4840,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4124,13 +4947,13 @@
         <v>4392</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4139,13 +4962,13 @@
         <v>12125</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4154,13 +4977,13 @@
         <v>16517</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4998,13 @@
         <v>415071</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>393</v>
@@ -4190,13 +5013,13 @@
         <v>383630</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>782</v>
@@ -4205,10 +5028,10 @@
         <v>798701</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -4282,10 +5105,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4294,13 +5117,13 @@
         <v>13644</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4309,13 +5132,13 @@
         <v>20546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,10 +5156,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -4345,13 +5168,13 @@
         <v>549900</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="M8" s="7">
         <v>1125</v>
@@ -4360,10 +5183,10 @@
         <v>1133494</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>22</v>
@@ -4434,13 +5257,13 @@
         <v>16452</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4449,13 +5272,13 @@
         <v>44951</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4464,13 +5287,13 @@
         <v>61404</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +5308,13 @@
         <v>652645</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="H11" s="7">
         <v>618</v>
@@ -4500,13 +5323,13 @@
         <v>616435</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7">
         <v>1240</v>
@@ -4515,13 +5338,13 @@
         <v>1269079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +5412,13 @@
         <v>26074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -4604,13 +5427,13 @@
         <v>75994</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="M13" s="7">
         <v>95</v>
@@ -4619,13 +5442,13 @@
         <v>102068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,10 +5463,10 @@
         <v>619974</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>47</v>
@@ -4655,13 +5478,13 @@
         <v>573083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="M14" s="7">
         <v>1089</v>
@@ -4670,13 +5493,13 @@
         <v>1193057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +5567,13 @@
         <v>31679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -4759,13 +5582,13 @@
         <v>88606</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -4774,13 +5597,13 @@
         <v>120285</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +5618,13 @@
         <v>446239</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>354</v>
@@ -4810,13 +5633,13 @@
         <v>408243</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>751</v>
@@ -4825,13 +5648,13 @@
         <v>854482</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,49 +5716,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>25071</v>
+        <v>9649</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="I19" s="7">
-        <v>125874</v>
+        <v>65247</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="M19" s="7">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="N19" s="7">
-        <v>150945</v>
+        <v>74896</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,49 +5767,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>599</v>
+        <v>315</v>
       </c>
       <c r="D20" s="7">
-        <v>566257</v>
+        <v>324681</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
-        <v>548</v>
+        <v>293</v>
       </c>
       <c r="I20" s="7">
-        <v>652057</v>
+        <v>312515</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
-        <v>1147</v>
+        <v>608</v>
       </c>
       <c r="N20" s="7">
-        <v>1218314</v>
+        <v>637196</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,10 +5818,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5010,10 +5833,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5025,10 +5848,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5042,55 +5865,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>110570</v>
+        <v>15423</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
-        <v>328</v>
+        <v>46</v>
       </c>
       <c r="I22" s="7">
-        <v>361195</v>
+        <v>60627</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>198</v>
+        <v>403</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="M22" s="7">
-        <v>435</v>
+        <v>64</v>
       </c>
       <c r="N22" s="7">
-        <v>471765</v>
+        <v>76050</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,49 +5922,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3124</v>
+        <v>284</v>
       </c>
       <c r="D23" s="7">
-        <v>3283780</v>
+        <v>241575</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
-        <v>3010</v>
+        <v>255</v>
       </c>
       <c r="I23" s="7">
-        <v>3183347</v>
+        <v>339542</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>206</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="M23" s="7">
-        <v>6134</v>
+        <v>539</v>
       </c>
       <c r="N23" s="7">
-        <v>6467127</v>
+        <v>581117</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>301</v>
+        <v>415</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,63 +5973,1594 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>107</v>
+      </c>
+      <c r="D25" s="7">
+        <v>110570</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H25" s="7">
+        <v>328</v>
+      </c>
+      <c r="I25" s="7">
+        <v>361195</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="M25" s="7">
+        <v>435</v>
+      </c>
+      <c r="N25" s="7">
+        <v>471765</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3124</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3283780</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3010</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3183347</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6134</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6467127</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A19987-F008-41B1-83A8-66745130D0D6}">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8919</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" s="7">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19579</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="M4" s="7">
+        <v>16</v>
+      </c>
+      <c r="N4" s="7">
+        <v>28498</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>167</v>
+      </c>
+      <c r="D5" s="7">
+        <v>391068</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H5" s="7">
+        <v>196</v>
+      </c>
+      <c r="I5" s="7">
+        <v>293621</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M5" s="7">
+        <v>363</v>
+      </c>
+      <c r="N5" s="7">
+        <v>684689</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>172</v>
+      </c>
+      <c r="D6" s="7">
+        <v>399987</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>207</v>
+      </c>
+      <c r="I6" s="7">
+        <v>313200</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>379</v>
+      </c>
+      <c r="N6" s="7">
+        <v>713187</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10773</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H7" s="7">
+        <v>31</v>
+      </c>
+      <c r="I7" s="7">
+        <v>33339</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="M7" s="7">
+        <v>41</v>
+      </c>
+      <c r="N7" s="7">
+        <v>44112</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>292</v>
+      </c>
+      <c r="D8" s="7">
+        <v>412774</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H8" s="7">
+        <v>430</v>
+      </c>
+      <c r="I8" s="7">
+        <v>478754</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="M8" s="7">
+        <v>722</v>
+      </c>
+      <c r="N8" s="7">
+        <v>891528</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>302</v>
+      </c>
+      <c r="D9" s="7">
+        <v>423547</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>461</v>
+      </c>
+      <c r="I9" s="7">
+        <v>512093</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>763</v>
+      </c>
+      <c r="N9" s="7">
+        <v>935640</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7">
+        <v>31742</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H10" s="7">
+        <v>68</v>
+      </c>
+      <c r="I10" s="7">
+        <v>42465</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="M10" s="7">
+        <v>97</v>
+      </c>
+      <c r="N10" s="7">
+        <v>74207</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>517</v>
+      </c>
+      <c r="D11" s="7">
+        <v>504596</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="7">
+        <v>780</v>
+      </c>
+      <c r="I11" s="7">
+        <v>549537</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1297</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1054133</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>546</v>
+      </c>
+      <c r="D12" s="7">
+        <v>536338</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>848</v>
+      </c>
+      <c r="I12" s="7">
+        <v>592002</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1394</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1128340</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>50</v>
+      </c>
+      <c r="D13" s="7">
+        <v>49301</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H13" s="7">
+        <v>149</v>
+      </c>
+      <c r="I13" s="7">
+        <v>89648</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="M13" s="7">
+        <v>199</v>
+      </c>
+      <c r="N13" s="7">
+        <v>138949</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>615</v>
+      </c>
+      <c r="D14" s="7">
+        <v>838485</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H14" s="7">
+        <v>992</v>
+      </c>
+      <c r="I14" s="7">
+        <v>623233</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1607</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1461718</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>665</v>
+      </c>
+      <c r="D15" s="7">
+        <v>887786</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1141</v>
+      </c>
+      <c r="I15" s="7">
+        <v>712881</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1806</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1600667</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>60</v>
+      </c>
+      <c r="D16" s="7">
+        <v>53801</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H16" s="7">
+        <v>172</v>
+      </c>
+      <c r="I16" s="7">
+        <v>96299</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="M16" s="7">
+        <v>232</v>
+      </c>
+      <c r="N16" s="7">
+        <v>150100</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>603</v>
+      </c>
+      <c r="D17" s="7">
+        <v>507433</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H17" s="7">
+        <v>830</v>
+      </c>
+      <c r="I17" s="7">
+        <v>451606</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1433</v>
+      </c>
+      <c r="N17" s="7">
+        <v>959039</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>663</v>
+      </c>
+      <c r="D18" s="7">
+        <v>561234</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1002</v>
+      </c>
+      <c r="I18" s="7">
+        <v>547905</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1665</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1109139</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>27</v>
+      </c>
+      <c r="D19" s="7">
+        <v>17459</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H19" s="7">
+        <v>123</v>
+      </c>
+      <c r="I19" s="7">
+        <v>62958</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="M19" s="7">
+        <v>150</v>
+      </c>
+      <c r="N19" s="7">
+        <v>80417</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>543</v>
+      </c>
+      <c r="D20" s="7">
+        <v>350706</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="H20" s="7">
+        <v>704</v>
+      </c>
+      <c r="I20" s="7">
+        <v>545410</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1247</v>
+      </c>
+      <c r="N20" s="7">
+        <v>896116</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>570</v>
+      </c>
+      <c r="D21" s="7">
+        <v>368165</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>827</v>
+      </c>
+      <c r="I21" s="7">
+        <v>608368</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1397</v>
+      </c>
+      <c r="N21" s="7">
+        <v>976533</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>42</v>
+      </c>
+      <c r="D22" s="7">
+        <v>25372</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="H22" s="7">
+        <v>138</v>
+      </c>
+      <c r="I22" s="7">
+        <v>68840</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="M22" s="7">
+        <v>180</v>
+      </c>
+      <c r="N22" s="7">
+        <v>94212</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>416</v>
+      </c>
+      <c r="D23" s="7">
+        <v>257387</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="H23" s="7">
+        <v>743</v>
+      </c>
+      <c r="I23" s="7">
+        <v>356991</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1159</v>
+      </c>
+      <c r="N23" s="7">
+        <v>614378</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>223</v>
+      </c>
+      <c r="D25" s="7">
+        <v>197367</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H25" s="7">
+        <v>692</v>
+      </c>
+      <c r="I25" s="7">
+        <v>413127</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="M25" s="7">
+        <v>915</v>
+      </c>
+      <c r="N25" s="7">
+        <v>610494</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3153</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3262450</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4675</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3299153</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7828</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6561603</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3376</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5367</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>8743</v>
+      </c>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
